--- a/manually_chosen_values_corrected.xlsx
+++ b/manually_chosen_values_corrected.xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>sdmx_code</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>comments</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>true_sdmx_codes</t>
         </is>
       </c>
     </row>
@@ -479,12 +479,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -507,12 +507,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -535,12 +535,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -563,12 +563,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -591,12 +591,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Q5</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Q5</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -619,12 +619,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>B40</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>B40</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
           <t>0 to 4</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
         <is>
           <t>No matches were manually chosen for 0 to 4</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -671,12 +671,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y1T4</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Y1T4</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -699,12 +699,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y10T14</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Y10T14</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -727,12 +727,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y10T19</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Y10T19</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -753,12 +753,12 @@
           <t>11 to 18</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
         <is>
           <t>No matches were manually chosen for 11 to 18</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -777,12 +777,12 @@
           <t>12 to 13</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
         <is>
           <t>No matches were manually chosen for 12 to 13</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -801,12 +801,12 @@
           <t>13 to 14</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
         <is>
           <t>No matches were manually chosen for 13 to 14</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -825,12 +825,12 @@
           <t>15 and under</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
         <is>
           <t>No matches were manually chosen for 15 and under</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -851,12 +851,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y15T17</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Y15T17</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -879,12 +879,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y15T19</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Y15T19</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -907,12 +907,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y15T24</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Y15T24</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -933,12 +933,12 @@
           <t>1.5 to 3</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
         <is>
           <t>No matches were manually chosen for 1.5 to 3</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -957,12 +957,12 @@
           <t>16 to 17</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
         <is>
           <t>No matches were manually chosen for 16 to 17</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -981,12 +981,12 @@
           <t>16 to 19 *</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
         <is>
           <t>No matches were manually chosen for 16 to 19 *</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1005,12 +1005,12 @@
           <t>16 to 19</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
         <is>
           <t>No matches were manually chosen for 16 to 19</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y16T24</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Y16T24</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -1059,12 +1059,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y16T24</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Y16T24</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -1085,12 +1085,12 @@
           <t>16 to 64</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
         <is>
           <t>No matches were manually chosen for 16 to 64</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1111,12 +1111,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y0T17</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Y0T17</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -1139,12 +1139,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y18T19</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Y18T19</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -1165,12 +1165,12 @@
           <t>18 to 20</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
         <is>
           <t>No matches were manually chosen for 18 to 20</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1189,12 +1189,12 @@
           <t>18 to 21</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
         <is>
           <t>No matches were manually chosen for 18 to 21</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1215,12 +1215,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y18T24</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Y18T24</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -1241,12 +1241,12 @@
           <t>19 and under</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
         <is>
           <t>No matches were manually chosen for 19 and under</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1265,12 +1265,12 @@
           <t>19 to 24</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
         <is>
           <t>No matches were manually chosen for 19 to 24</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1289,12 +1289,12 @@
           <t>19 to 64</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
         <is>
           <t>No matches were manually chosen for 19 to 64</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1313,12 +1313,12 @@
           <t>20 and under</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
         <is>
           <t>No matches were manually chosen for 20 and under</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1339,12 +1339,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y20T24</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Y20T24</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -1367,12 +1367,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y20T24</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Y20T24</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -1393,12 +1393,12 @@
           <t>21 to 24</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
         <is>
           <t>No matches were manually chosen for 21 to 24</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1417,12 +1417,12 @@
           <t>21 to 40</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
         <is>
           <t>No matches were manually chosen for 21 to 40</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1441,12 +1441,12 @@
           <t>22 to 29</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
         <is>
           <t>No matches were manually chosen for 22 to 29</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1465,12 +1465,12 @@
           <t>24 to 29</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
         <is>
           <t>No matches were manually chosen for 24 to 29</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1491,12 +1491,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y25T29</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Y25T29</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -1519,12 +1519,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y25T34</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Y25T34</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -1545,12 +1545,12 @@
           <t>25 to 49</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
         <is>
           <t>No matches were manually chosen for 25 to 49</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1569,12 +1569,12 @@
           <t>29 and under</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
         <is>
           <t>No matches were manually chosen for 29 and under</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1593,12 +1593,12 @@
           <t>2</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
         <is>
           <t>No matches were manually chosen for 2</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1617,12 +1617,12 @@
           <t>3 to 4</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
         <is>
           <t>No matches were manually chosen for 3 to 4</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y30T34</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Y30T34</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -1671,12 +1671,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y30T39</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Y30T39</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -1697,12 +1697,12 @@
           <t>30 to 49</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
         <is>
           <t>No matches were manually chosen for 30 to 49</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y35T39</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Y35T39</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -1751,12 +1751,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y35T44</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Y35T44</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -1779,12 +1779,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y35T49</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Y35T49</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -1805,12 +1805,12 @@
           <t>35 to 54</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
         <is>
           <t>No matches were manually chosen for 35 to 54</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1829,12 +1829,12 @@
           <t>3</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
         <is>
           <t>No matches were manually chosen for 3</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1855,12 +1855,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y0T4</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Y0T4</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -1881,12 +1881,12 @@
           <t>4 to 10</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
         <is>
           <t>No matches were manually chosen for 4 to 10</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1905,12 +1905,12 @@
           <t>4</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
         <is>
           <t>No matches were manually chosen for 4</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1929,12 +1929,12 @@
           <t>40 and over</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
         <is>
           <t>No matches were manually chosen for 40 and over</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1955,12 +1955,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y40T44</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Y40T44</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -1983,12 +1983,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y40T49</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Y40T49</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -2009,12 +2009,12 @@
           <t>41 to 60</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
         <is>
           <t>No matches were manually chosen for 41 to 60</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2033,12 +2033,12 @@
           <t>45 and over</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
         <is>
           <t>No matches were manually chosen for 45 and over</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2059,12 +2059,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y45T49</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Y45T49</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -2087,12 +2087,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y45T54</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Y45T54</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -2115,12 +2115,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y5T14</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Y5T14</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -2143,12 +2143,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y15T65</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Y15T65</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -2169,12 +2169,12 @@
           <t>5 to 9</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
         <is>
           <t>No matches were manually chosen for 5 to 9</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2195,12 +2195,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y50T54</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Y50T54</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -2223,12 +2223,12 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y50T59</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Y50T59</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -2249,12 +2249,12 @@
           <t>50 to 64</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
         <is>
           <t>No matches were manually chosen for 50 to 64</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2273,12 +2273,12 @@
           <t>55 and over #</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
         <is>
           <t>No matches were manually chosen for 55 and over #</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2299,12 +2299,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y55T59</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Y55T59</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -2327,12 +2327,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y55T59</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Y55T59</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -2355,12 +2355,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y55T64</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Y55T64</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -2383,12 +2383,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y_GE60</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Y_GE60</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -2411,12 +2411,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y60T64</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Y60T64</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -2439,12 +2439,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y60T64</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Y60T64</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -2467,12 +2467,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y60T69</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Y60T69</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -2493,12 +2493,12 @@
           <t>61 and over</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
         <is>
           <t>No matches were manually chosen for 61 and over</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2519,12 +2519,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y_GE65</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Y_GE65</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -2547,12 +2547,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y_GE65</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Y_GE65</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -2575,12 +2575,12 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y65T69</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Y65T69</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -2603,12 +2603,12 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y65T74</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Y65T74</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -2631,12 +2631,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y_GE70</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Y_GE70</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -2659,12 +2659,12 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y70T74</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Y70T74</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -2687,12 +2687,12 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y_GE75</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Y_GE75</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -2715,12 +2715,12 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y75T79</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Y75T79</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -2743,12 +2743,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y75T84</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Y75T84</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -2771,12 +2771,12 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y80T84</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Y80T84</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -2799,12 +2799,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y_GE85</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Y_GE85</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -2827,12 +2827,12 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y85T89</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Y85T89</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -2855,12 +2855,12 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y_GE85</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Y_GE85</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -2883,12 +2883,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y_GE90</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Y_GE90</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -2909,12 +2909,12 @@
           <t>By 1st birthday</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
         <is>
           <t>No matches were manually chosen for By 1st birthday</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2933,12 +2933,12 @@
           <t>By 2nd birthday</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
         <is>
           <t>No matches were manually chosen for By 2nd birthday</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2957,12 +2957,12 @@
           <t>By 5th birthday</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
         <is>
           <t>No matches were manually chosen for By 5th birthday</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2981,12 +2981,12 @@
           <t>By age 17</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
         <is>
           <t>No matches were manually chosen for By age 17</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3007,12 +3007,12 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y0T17</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Y0T17</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -3033,12 +3033,12 @@
           <t>Over 65</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
         <is>
           <t>No matches were manually chosen for Over 65</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3059,12 +3059,12 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y0</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Y0</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -3087,12 +3087,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>Y0T14</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Y0T14</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -3113,12 +3113,12 @@
           <t>Under 16</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
         <is>
           <t>No matches were manually chosen for Under 16</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3139,12 +3139,12 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -3167,12 +3167,12 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -3195,12 +3195,12 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -3223,12 +3223,12 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -3251,12 +3251,12 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>M</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -3279,12 +3279,12 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -3307,12 +3307,12 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -3335,12 +3335,12 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -3363,12 +3363,12 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>142</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -3389,12 +3389,12 @@
           <t>Developing countries, unspecified</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
         <is>
           <t>No matches were manually chosen for Developing countries, unspecified</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -3415,12 +3415,12 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>150</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -3441,12 +3441,12 @@
           <t>Pacific</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr">
         <is>
           <t>No matches were manually chosen for Pacific</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -3467,12 +3467,12 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>AF</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>AF</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -3493,12 +3493,12 @@
           <t>Africa, regional</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr">
         <is>
           <t>No matches were manually chosen for Africa, regional</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -3519,12 +3519,12 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -3547,12 +3547,12 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>DZ</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>DZ</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -3573,12 +3573,12 @@
           <t>America, regional</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr">
         <is>
           <t>No matches were manually chosen for America, regional</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -3599,12 +3599,12 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -3627,12 +3627,12 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -3655,12 +3655,12 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>AG</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>AG</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -3683,12 +3683,12 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -3711,12 +3711,12 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>AM</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>AM</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -3737,12 +3737,12 @@
           <t>Asia, regional</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr">
         <is>
           <t>No matches were manually chosen for Asia, regional</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -3763,12 +3763,12 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -3791,12 +3791,12 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>BD</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>BD</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -3819,12 +3819,12 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -3847,12 +3847,12 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>BY</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>BY</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -3875,12 +3875,12 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>BZ</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>BZ</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -3903,12 +3903,12 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>BJ</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>BJ</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -3931,12 +3931,12 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>BT</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>BT</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -3959,12 +3959,12 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>BO</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>BO</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -3987,12 +3987,12 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -4015,12 +4015,12 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -4043,12 +4043,12 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -4071,12 +4071,12 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>BF</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>BF</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -4097,12 +4097,12 @@
           <t>Burma</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr">
         <is>
           <t>No matches were manually chosen for Burma</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4123,12 +4123,12 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>BI</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>BI</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -4151,12 +4151,12 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>KH</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>KH</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -4179,12 +4179,12 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>CM</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -4207,12 +4207,12 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>CV</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>CV</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -4233,12 +4233,12 @@
           <t>Central African Rep.</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr">
         <is>
           <t>No matches were manually chosen for Central African Rep.</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -4257,12 +4257,12 @@
           <t>Central Asia, regional</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr">
         <is>
           <t>No matches were manually chosen for Central Asia, regional</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -4283,12 +4283,12 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>TD</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>TD</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -4311,12 +4311,12 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>CL</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>CL</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -4339,12 +4339,12 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -4367,12 +4367,12 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -4395,12 +4395,12 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>KM</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>KM</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -4423,12 +4423,12 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -4451,12 +4451,12 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -4479,12 +4479,12 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>CI</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>CI</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -4507,12 +4507,12 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -4535,12 +4535,12 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>CU</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>CU</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -4563,12 +4563,12 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -4591,12 +4591,12 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -4619,12 +4619,12 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -4647,12 +4647,12 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>DM</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>DM</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -4675,12 +4675,12 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>DO</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>DO</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -4703,12 +4703,12 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>EC</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>EC</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -4731,12 +4731,12 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>EG</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>EG</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -4759,12 +4759,12 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>SV</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>SV</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -4787,12 +4787,12 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ER</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>ER</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -4815,12 +4815,12 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ET</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>ET</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -4841,12 +4841,12 @@
           <t>Europe, regional</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr">
         <is>
           <t>No matches were manually chosen for Europe, regional</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -4865,12 +4865,12 @@
           <t>Far East Asia, regional</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr">
         <is>
           <t>No matches were manually chosen for Far East Asia, regional</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -4891,12 +4891,12 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>FJ</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>FJ</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -4919,12 +4919,12 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>MK</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>MK</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -4947,12 +4947,12 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -4975,12 +4975,12 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>GM</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>GM</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -5003,12 +5003,12 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>GE</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -5031,12 +5031,12 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>GH</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>GH</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -5059,12 +5059,12 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>GD</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>GD</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -5087,12 +5087,12 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>GT</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -5115,12 +5115,12 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>GW</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>GW</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -5143,12 +5143,12 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>GN</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>GN</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -5171,12 +5171,12 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>GY</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>GY</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -5199,12 +5199,12 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>HT</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>HT</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -5227,12 +5227,12 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>HN</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>HN</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -5255,12 +5255,12 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -5283,12 +5283,12 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -5311,12 +5311,12 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>IR</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>IR</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -5339,12 +5339,12 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -5367,12 +5367,12 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>JM</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>JM</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -5395,12 +5395,12 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>JO</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>JO</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -5423,12 +5423,12 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>KZ</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>KZ</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -5451,12 +5451,12 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>KE</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>KE</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -5479,12 +5479,12 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>KI</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>KI</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -5507,12 +5507,12 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>XK</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>XK</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -5533,12 +5533,12 @@
           <t>Kyrgyz Republic</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr">
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr">
         <is>
           <t>No matches were manually chosen for Kyrgyz Republic</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -5559,12 +5559,12 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>LA</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>LA</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -5587,12 +5587,12 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>LB</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>LB</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -5615,12 +5615,12 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>LS</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>LS</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -5643,12 +5643,12 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>LR</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>LR</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -5671,12 +5671,12 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>LY</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>LY</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -5699,12 +5699,12 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -5727,12 +5727,12 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>MW</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>MW</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -5755,12 +5755,12 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>MY</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>MY</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -5783,12 +5783,12 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>MV</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>MV</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -5811,12 +5811,12 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ML</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>ML</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -5839,12 +5839,12 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>MH</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>MH</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -5867,12 +5867,12 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>MR</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>MR</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -5895,12 +5895,12 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>MU</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>MU</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -5923,12 +5923,12 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -5951,12 +5951,12 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>57</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -5977,12 +5977,12 @@
           <t>Middle East, regional</t>
         </is>
       </c>
-      <c r="E206" t="inlineStr">
+      <c r="E206" t="inlineStr"/>
+      <c r="F206" t="inlineStr">
         <is>
           <t>No matches were manually chosen for Middle East, regional</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -6003,12 +6003,12 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -6031,12 +6031,12 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>MN</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>MN</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -6059,12 +6059,12 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ME</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>ME</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -6087,12 +6087,12 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -6115,12 +6115,12 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -6143,12 +6143,12 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>MZ</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>MZ</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -6171,12 +6171,12 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>MM</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>MM</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -6197,12 +6197,12 @@
           <t>Namibia</t>
         </is>
       </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>Matching SDG value was manually chosen</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr"/>
+      <c r="E214" t="inlineStr"/>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Matching SDG value was manually chosen</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -6223,12 +6223,12 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>NR</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>NR</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -6251,12 +6251,12 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>NP</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>NP</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -6279,12 +6279,12 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>NI</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>NI</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -6307,12 +6307,12 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -6335,12 +6335,12 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>NG</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -6361,12 +6361,12 @@
           <t>North &amp; Central America, regional</t>
         </is>
       </c>
-      <c r="E220" t="inlineStr">
+      <c r="E220" t="inlineStr"/>
+      <c r="F220" t="inlineStr">
         <is>
           <t>No matches were manually chosen for North &amp; Central America, regional</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -6385,12 +6385,12 @@
           <t>North of Sahara, regional</t>
         </is>
       </c>
-      <c r="E221" t="inlineStr">
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr">
         <is>
           <t>No matches were manually chosen for North of Sahara, regional</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -6409,12 +6409,12 @@
           <t>Oceania, regional</t>
         </is>
       </c>
-      <c r="E222" t="inlineStr">
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="inlineStr">
         <is>
           <t>No matches were manually chosen for Oceania, regional</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -6435,12 +6435,12 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>OM</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>OM</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -6463,12 +6463,12 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -6491,12 +6491,12 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>PW</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>PW</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -6519,12 +6519,12 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -6547,12 +6547,12 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -6575,12 +6575,12 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>PY</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>PY</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -6603,12 +6603,12 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -6631,12 +6631,12 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -6659,12 +6659,12 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -6687,12 +6687,12 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>WS</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>WS</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -6715,12 +6715,12 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ST</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -6743,12 +6743,12 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>SN</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -6771,12 +6771,12 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -6799,12 +6799,12 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -6827,12 +6827,12 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>SL</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>SL</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -6855,12 +6855,12 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>SB</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>SB</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -6883,12 +6883,12 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>SO</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -6911,12 +6911,12 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -6937,12 +6937,12 @@
           <t>South America, regional</t>
         </is>
       </c>
-      <c r="E241" t="inlineStr">
+      <c r="E241" t="inlineStr"/>
+      <c r="F241" t="inlineStr">
         <is>
           <t>No matches were manually chosen for South America, regional</t>
         </is>
       </c>
-      <c r="F241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -6961,12 +6961,12 @@
           <t>South Asia, regional</t>
         </is>
       </c>
-      <c r="E242" t="inlineStr">
+      <c r="E242" t="inlineStr"/>
+      <c r="F242" t="inlineStr">
         <is>
           <t>No matches were manually chosen for South Asia, regional</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -6985,12 +6985,12 @@
           <t>South &amp; Central Asia, regional</t>
         </is>
       </c>
-      <c r="E243" t="inlineStr">
+      <c r="E243" t="inlineStr"/>
+      <c r="F243" t="inlineStr">
         <is>
           <t>No matches were manually chosen for South &amp; Central Asia, regional</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -7009,12 +7009,12 @@
           <t>South of Sahara, regional</t>
         </is>
       </c>
-      <c r="E244" t="inlineStr">
+      <c r="E244" t="inlineStr"/>
+      <c r="F244" t="inlineStr">
         <is>
           <t>No matches were manually chosen for South of Sahara, regional</t>
         </is>
       </c>
-      <c r="F244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -7035,12 +7035,12 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -7063,12 +7063,12 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>LK</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>LK</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -7091,12 +7091,12 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>SH</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>SH</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -7119,12 +7119,12 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>KN</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>KN</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -7147,12 +7147,12 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -7175,12 +7175,12 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>890</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>890</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -7203,12 +7203,12 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>VC</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>VC</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -7231,12 +7231,12 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -7259,12 +7259,12 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>SR</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>SR</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -7285,12 +7285,12 @@
           <t>Swaziland</t>
         </is>
       </c>
-      <c r="E254" t="inlineStr">
+      <c r="E254" t="inlineStr"/>
+      <c r="F254" t="inlineStr">
         <is>
           <t>No matches were manually chosen for Swaziland</t>
         </is>
       </c>
-      <c r="F254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -7311,12 +7311,12 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>SY</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>SY</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -7339,12 +7339,12 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>TJ</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>TJ</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -7367,12 +7367,12 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>TZ</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>TZ</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -7395,12 +7395,12 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -7423,12 +7423,12 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>TL</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>TL</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -7451,12 +7451,12 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>TG</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>TG</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -7479,12 +7479,12 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>TO</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>TO</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -7507,12 +7507,12 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>TT</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>TT</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -7535,12 +7535,12 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -7563,12 +7563,12 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -7591,12 +7591,12 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>TM</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>TM</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -7619,12 +7619,12 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -7647,12 +7647,12 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>UG</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>UG</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -7675,12 +7675,12 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>UA</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>UA</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -7703,12 +7703,12 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>UY</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>UY</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -7731,12 +7731,12 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>UZ</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>UZ</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -7759,12 +7759,12 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -7787,12 +7787,12 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>VE</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>VE</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -7815,12 +7815,12 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>VN</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>VN</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -7841,12 +7841,12 @@
           <t>West Bank &amp; Gaza Strip</t>
         </is>
       </c>
-      <c r="E274" t="inlineStr">
+      <c r="E274" t="inlineStr"/>
+      <c r="F274" t="inlineStr">
         <is>
           <t>No matches were manually chosen for West Bank &amp; Gaza Strip</t>
         </is>
       </c>
-      <c r="F274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -7865,12 +7865,12 @@
           <t>West Indies, regional</t>
         </is>
       </c>
-      <c r="E275" t="inlineStr">
+      <c r="E275" t="inlineStr"/>
+      <c r="F275" t="inlineStr">
         <is>
           <t>No matches were manually chosen for West Indies, regional</t>
         </is>
       </c>
-      <c r="F275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -7891,12 +7891,12 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>YE</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>YE</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -7919,12 +7919,12 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ZM</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>ZM</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -7947,12 +7947,12 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ZW</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>ZW</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -7975,12 +7975,12 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>MF1</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>MF1</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -8003,12 +8003,12 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>MF4</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>MF4</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -8031,12 +8031,12 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>MF2</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>MF2</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -8059,12 +8059,12 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>MF2</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>MF2</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -8087,12 +8087,12 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>MF3</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>MF3</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -8115,12 +8115,12 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_A</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>ISIC4_A</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -8143,12 +8143,12 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_F</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>ISIC4_F</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -8171,12 +8171,12 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_D</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>ISIC4_D</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -8199,12 +8199,12 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>HH</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>HH</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -8227,12 +8227,12 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_C10T32X19</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>ISIC4_C10T32X19</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -8255,12 +8255,12 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_C10T32X19</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>ISIC4_C10T32X19</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -8283,12 +8283,12 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_C</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>ISIC4_C</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -8311,12 +8311,12 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_C10T32X19</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>ISIC4_C10T32X19</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -8339,12 +8339,12 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_C10T32X19</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>ISIC4_C10T32X19</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -8367,12 +8367,12 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_C10T32X19</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>ISIC4_C10T32X19</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -8395,12 +8395,12 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_C10T32X19</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>ISIC4_C10T32X19</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -8423,12 +8423,12 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_C10T32X19</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>ISIC4_C10T32X19</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -8451,12 +8451,12 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_C10T32X19</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>ISIC4_C10T32X19</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -8479,12 +8479,12 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_C10T32X19</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>ISIC4_C10T32X19</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -8507,12 +8507,12 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_B</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>ISIC4_B</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -8535,12 +8535,12 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_GTS</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>ISIC4_GTS</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -8563,12 +8563,12 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_E</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>ISIC4_E</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -8591,12 +8591,12 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>R</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -8619,12 +8619,12 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>U</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -8647,12 +8647,12 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_I</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>ISIC4_I</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -8675,12 +8675,12 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_I</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>ISIC4_I</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -8703,12 +8703,12 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_T</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>ISIC4_T</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -8731,12 +8731,12 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_T</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>ISIC4_T</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -8759,12 +8759,12 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_T</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>ISIC4_T</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -8787,12 +8787,12 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_N</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>ISIC4_N</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -8815,12 +8815,12 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_N</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>ISIC4_N</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -8843,12 +8843,12 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_N</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>ISIC4_N</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -8871,12 +8871,12 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_R</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>ISIC4_R</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -8899,12 +8899,12 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_R</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>ISIC4_R</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -8927,12 +8927,12 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_P</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>ISIC4_P</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -8955,12 +8955,12 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_P</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>ISIC4_P</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -8983,12 +8983,12 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_D</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>ISIC4_D</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -9011,12 +9011,12 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_K</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>ISIC4_K</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -9039,12 +9039,12 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_K</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>ISIC4_K</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -9067,12 +9067,12 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_K</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>ISIC4_K</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -9093,12 +9093,12 @@
           <t>Gas, electricity and water supply; sewerage, waste and recycling *</t>
         </is>
       </c>
-      <c r="E319" t="inlineStr">
+      <c r="E319" t="inlineStr"/>
+      <c r="F319" t="inlineStr">
         <is>
           <t>No matches were manually chosen for Gas, electricity and water supply; sewerage, waste and recycling *</t>
         </is>
       </c>
-      <c r="F319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -9119,12 +9119,12 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_Q</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>ISIC4_Q</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -9147,12 +9147,12 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_Q</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>ISIC4_Q</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -9175,12 +9175,12 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_Q</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>ISIC4_Q</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -9203,12 +9203,12 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_J</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>ISIC4_J</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -9231,12 +9231,12 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_J</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>ISIC4_J</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -9259,12 +9259,12 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_C</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>ISIC4_C</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -9287,12 +9287,12 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_S</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>ISIC4_S</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -9315,12 +9315,12 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_S</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>ISIC4_S</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -9343,12 +9343,12 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_M</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>ISIC4_M</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -9371,12 +9371,12 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_M</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>ISIC4_M</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -9399,12 +9399,12 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_O</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>ISIC4_O</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -9427,12 +9427,12 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_O</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>ISIC4_O</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -9455,12 +9455,12 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_L</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>ISIC4_L</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -9483,12 +9483,12 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_L</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>ISIC4_L</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -9511,12 +9511,12 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_L</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>ISIC4_L</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -9539,12 +9539,12 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_S</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>ISIC4_S</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -9567,12 +9567,12 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_H</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>ISIC4_H</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -9595,12 +9595,12 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_H</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>ISIC4_H</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -9623,12 +9623,12 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_H</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>ISIC4_H</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -9651,12 +9651,12 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_E</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>ISIC4_E</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -9679,12 +9679,12 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_E</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>ISIC4_E</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -9707,12 +9707,12 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_G</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>ISIC4_G</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
@@ -9735,12 +9735,12 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Matching SDG value was manually chosen</t>
+          <t>ISIC4_G</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>ISIC4_G</t>
+          <t>Matching SDG value was manually chosen</t>
         </is>
       </c>
     </row>
